--- a/Documentação/Planilhas/Layouts/Fluxo_Pedidos.xlsx
+++ b/Documentação/Planilhas/Layouts/Fluxo_Pedidos.xlsx
@@ -4,18 +4,32 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="stg_entrada_fluxo_pedidos" sheetId="113" r:id="rId2"/>
+    <sheet name="aux_fact_fluxo_pedidos_caixa" sheetId="127" r:id="rId2"/>
+    <sheet name="aux_fact_fluxo_pedidos_entrada" sheetId="123" r:id="rId3"/>
+    <sheet name="aux_fact_fluxo_pedidos_saida" sheetId="125" r:id="rId4"/>
+    <sheet name="aux_fluxo_pedidos_caixa" sheetId="121" r:id="rId5"/>
+    <sheet name="aux_fluxo_pedidos_entrada" sheetId="117" r:id="rId6"/>
+    <sheet name="aux_fluxo_pedidos_saida" sheetId="119" r:id="rId7"/>
+    <sheet name="fact_fluxo_pedidos_caixa" sheetId="126" r:id="rId8"/>
+    <sheet name="fact_fluxo_pedidos_entrada" sheetId="122" r:id="rId9"/>
+    <sheet name="fact_fluxo_pedidos_saida" sheetId="124" r:id="rId10"/>
+    <sheet name="ods_fluxo_pedidos_caixa" sheetId="120" r:id="rId11"/>
+    <sheet name="ods_fluxo_pedidos_entrada" sheetId="116" r:id="rId12"/>
+    <sheet name="ods_fluxo_pedidos_saida" sheetId="118" r:id="rId13"/>
+    <sheet name="stg_caixa_fluxo_pedidos" sheetId="115" r:id="rId14"/>
+    <sheet name="stg_entrada_fluxo_pedidos" sheetId="113" r:id="rId15"/>
+    <sheet name="stg_saida_fluxo_pedidos" sheetId="114" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="108">
   <si>
     <t>Campo</t>
   </si>
@@ -65,9 +79,6 @@
     <t>MIS_STAGING</t>
   </si>
   <si>
-    <t>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\stg_hist_ati_can_prod_ln.dtsx</t>
-  </si>
-  <si>
     <t>[log].[stg_entrada_fluxo_pedidos]</t>
   </si>
   <si>
@@ -108,6 +119,240 @@
   </si>
   <si>
     <t>Identifica a planta através do seu código. Ex: 2, 3, 4, 6, 10, 16, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, 13, etc</t>
+  </si>
+  <si>
+    <t>Identfiica o Departamento através do seu código. Ex: 13,29, 20, etc</t>
+  </si>
+  <si>
+    <t>Identifica o CEP de Entrega através do seu código sem qualquer separador. Ex: 78565000, 63050320, 22240110, etc</t>
+  </si>
+  <si>
+    <t>Quantidade de pedidos</t>
+  </si>
+  <si>
+    <t>PECAS</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Pedida </t>
+  </si>
+  <si>
+    <t>Dimensão do produto obtida através do cálculo: altura * largura * comprimento</t>
+  </si>
+  <si>
+    <t>MIS_MIGRACAO</t>
+  </si>
+  <si>
+    <t>stg_wms_pedido_det</t>
+  </si>
+  <si>
+    <t>stg_wms_pedido_cab</t>
+  </si>
+  <si>
+    <t>stg_pev_cab</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>[log].[stg_saida_fluxo_pedidos]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\stg_fluxo_pedidos_ln.dtsx</t>
+  </si>
+  <si>
+    <t>FILIAL</t>
+  </si>
+  <si>
+    <t>ID_FILIAL</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO</t>
+  </si>
+  <si>
+    <t>Identifica a data de emissão da nota fiscal no formato AAAA-MM-DD</t>
+  </si>
+  <si>
+    <t>Identifica hora de emissão da nota fiscal no formato HH:MM:SSSSSS</t>
+  </si>
+  <si>
+    <t>Valor Total da Nota Fiscal</t>
+  </si>
+  <si>
+    <t>Valor Total do Pedido</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos Faturados</t>
+  </si>
+  <si>
+    <t>Quantidade de Peças Faturadas</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através da sua descrição. Ex: ALDEIA, ATACADO, IRAJA, MEGA CD, TAMBORE, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 2, 3, 4, 6, 10, 16, etc</t>
+  </si>
+  <si>
+    <t>ln.ods_nfv_cab</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>ln.ods_nfv_det</t>
+  </si>
+  <si>
+    <t>ln.ods_fat_faturamento</t>
+  </si>
+  <si>
+    <t>stg_dom_parceiro_endereco</t>
+  </si>
+  <si>
+    <t>[log].[stg_caixa_fluxo_pedidos]</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos Vendidos</t>
+  </si>
+  <si>
+    <t>Quantidade de Peças Vendidas</t>
+  </si>
+  <si>
+    <t>ods_produc</t>
+  </si>
+  <si>
+    <t>[log].[ods_fluxo_pedidos_entrada]</t>
+  </si>
+  <si>
+    <t>nr_dt_emissao</t>
+  </si>
+  <si>
+    <t>nr_hora</t>
+  </si>
+  <si>
+    <t>ds_filial</t>
+  </si>
+  <si>
+    <t>nr_id_planta</t>
+  </si>
+  <si>
+    <t>nr_id_filial</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>nr_id_localidade</t>
+  </si>
+  <si>
+    <t>nr_id_departamento</t>
+  </si>
+  <si>
+    <t>nr_qtde_pedido</t>
+  </si>
+  <si>
+    <t>nr_vl_total</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através do seu código. Ex: 13,29, 20, etc</t>
+  </si>
+  <si>
+    <t>Identifica a localidade através do seu código. Ex: 2562, 1543, 1729, 2061, etc</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>log.stg_entrada_fluxo_pedidos</t>
+  </si>
+  <si>
+    <t>trans.ods_localidade</t>
+  </si>
+  <si>
+    <t>[log].[aux_fluxo_pedidos_entrada]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</t>
+  </si>
+  <si>
+    <t>nr_qtde_pecas</t>
+  </si>
+  <si>
+    <t>nr_vl_m3</t>
+  </si>
+  <si>
+    <t>[log].[ods_fluxo_pedidos_saida]</t>
+  </si>
+  <si>
+    <t>[log].[aux_fluxo_pedidos_saida]</t>
+  </si>
+  <si>
+    <t>Quantidade de pedidos faturados</t>
+  </si>
+  <si>
+    <t>Valor Total do Pedido faturado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade faturada </t>
+  </si>
+  <si>
+    <t>log.stg_saida_fluxo_pedidos</t>
+  </si>
+  <si>
+    <t>[log].[ods_fluxo_pedidos_caixa]</t>
+  </si>
+  <si>
+    <t>log.stg_caixa_fluxo_pedidos</t>
+  </si>
+  <si>
+    <t>[log].[aux_fluxo_pedidos_caixa]</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>[log].[fact_fluxo_pedidos_entrada]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</t>
+  </si>
+  <si>
+    <t>log.ods_fluxo_pedidos_entrada</t>
+  </si>
+  <si>
+    <t>[log].[aux_fact_fluxo_pedidos_entrada]</t>
+  </si>
+  <si>
+    <t>[log].[fact_fluxo_pedidos_saida]</t>
+  </si>
+  <si>
+    <t>log.ods_fluxo_pedidos_saida</t>
+  </si>
+  <si>
+    <t>[log].[aux_fact_fluxo_pedidos_saida]</t>
+  </si>
+  <si>
+    <t>[log].[fact_fluxo_pedidos_caixa]</t>
+  </si>
+  <si>
+    <t>Quantidade de pedidos vendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Vendida </t>
+  </si>
+  <si>
+    <t>ods_fluxo_pedidos_caixa</t>
+  </si>
+  <si>
+    <t>[log].[aux_fact_fluxo_pedidos_caixa]</t>
   </si>
 </sst>
 </file>
@@ -166,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -328,6 +573,47 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -335,26 +621,13 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -363,7 +636,7 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -382,7 +655,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,22 +693,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,6 +737,636 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -787,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -818,87 +1727,1240 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="18"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="15" t="str">
+        <f>aux_fact_fluxo_pedidos_caixa!B9</f>
+        <v>[log].[aux_fact_fluxo_pedidos_caixa]</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>aux_fact_fluxo_pedidos_caixa!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>aux_fact_fluxo_pedidos_caixa!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="15" t="str">
+        <f>aux_fact_fluxo_pedidos_entrada!B9</f>
+        <v>[log].[aux_fact_fluxo_pedidos_entrada]</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>aux_fact_fluxo_pedidos_entrada!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>aux_fact_fluxo_pedidos_entrada!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="15" t="str">
+        <f>aux_fact_fluxo_pedidos_saida!B9</f>
+        <v>[log].[aux_fact_fluxo_pedidos_saida]</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>aux_fact_fluxo_pedidos_saida!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>aux_fact_fluxo_pedidos_saida!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="15" t="str">
+        <f>aux_fluxo_pedidos_caixa!B9</f>
+        <v>[log].[aux_fluxo_pedidos_caixa]</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>aux_fluxo_pedidos_caixa!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>aux_fluxo_pedidos_caixa!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="18"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="15" t="str">
+        <f>aux_fluxo_pedidos_entrada!B9</f>
+        <v>[log].[aux_fluxo_pedidos_entrada]</v>
+      </c>
+      <c r="C7" s="21" t="str">
+        <f>aux_fluxo_pedidos_entrada!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>aux_fluxo_pedidos_entrada!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="15" t="str">
+        <f>aux_fluxo_pedidos_saida!B9</f>
+        <v>[log].[aux_fluxo_pedidos_saida]</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>aux_fluxo_pedidos_saida!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>aux_fluxo_pedidos_saida!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15" t="str">
+        <f>fact_fluxo_pedidos_caixa!B9</f>
+        <v>[log].[fact_fluxo_pedidos_caixa]</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>fact_fluxo_pedidos_caixa!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>fact_fluxo_pedidos_caixa!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="15" t="str">
+        <f>fact_fluxo_pedidos_entrada!B9</f>
+        <v>[log].[fact_fluxo_pedidos_entrada]</v>
+      </c>
+      <c r="C10" s="21" t="str">
+        <f>fact_fluxo_pedidos_entrada!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>fact_fluxo_pedidos_entrada!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="15" t="str">
+        <f>fact_fluxo_pedidos_saida!B9</f>
+        <v>[log].[fact_fluxo_pedidos_saida]</v>
+      </c>
+      <c r="C11" s="21" t="str">
+        <f>fact_fluxo_pedidos_saida!B8</f>
+        <v>MIS_DATA_WAREHOUSE</v>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>fact_fluxo_pedidos_saida!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\dw_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="15" t="str">
+        <f>ods_fluxo_pedidos_caixa!B9</f>
+        <v>[log].[ods_fluxo_pedidos_caixa]</v>
+      </c>
+      <c r="C12" s="21" t="str">
+        <f>ods_fluxo_pedidos_caixa!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f>ods_fluxo_pedidos_caixa!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="15" t="str">
+        <f>ods_fluxo_pedidos_entrada!B9</f>
+        <v>[log].[ods_fluxo_pedidos_entrada]</v>
+      </c>
+      <c r="C13" s="21" t="str">
+        <f>ods_fluxo_pedidos_entrada!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f>ods_fluxo_pedidos_entrada!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="15" t="str">
+        <f>ods_fluxo_pedidos_saida!B9</f>
+        <v>[log].[ods_fluxo_pedidos_saida]</v>
+      </c>
+      <c r="C14" s="21" t="str">
+        <f>ods_fluxo_pedidos_saida!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>ods_fluxo_pedidos_saida!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\ods_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15" t="str">
+        <f>stg_caixa_fluxo_pedidos!B9</f>
+        <v>[log].[stg_caixa_fluxo_pedidos]</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>stg_caixa_fluxo_pedidos!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>stg_caixa_fluxo_pedidos!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\stg_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15" t="str">
+        <f>stg_entrada_fluxo_pedidos!B9</f>
+        <v>[log].[stg_entrada_fluxo_pedidos]</v>
+      </c>
+      <c r="C16" s="21" t="str">
+        <f>stg_entrada_fluxo_pedidos!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>stg_entrada_fluxo_pedidos!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\stg_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="15" t="str">
+        <f>stg_saida_fluxo_pedidos!B9</f>
+        <v>[log].[stg_saida_fluxo_pedidos]</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>stg_saida_fluxo_pedidos!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>stg_saida_fluxo_pedidos!B10</f>
+        <v>N:\Migracao\Fluxo Pedidos_LN\Fluxo Pedidos\stg_fluxo_pedidos_ln.dtsx</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E26">
+  <sortState ref="B3:E17">
     <sortCondition ref="B3"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B16" location="stg_entrada_fluxo_pedidos!A1" display="stg_entrada_fluxo_pedidos!A1"/>
+    <hyperlink ref="B17" location="stg_saida_fluxo_pedidos!A1" display="stg_saida_fluxo_pedidos!A1"/>
+    <hyperlink ref="B15" location="stg_caixa_fluxo_pedidos!A1" display="stg_caixa_fluxo_pedidos!A1"/>
+    <hyperlink ref="B13" location="ods_fluxo_pedidos_entrada!A1" display="ods_fluxo_pedidos_entrada!A1"/>
+    <hyperlink ref="B7" location="aux_fluxo_pedidos_entrada!A1" display="aux_fluxo_pedidos_entrada!A1"/>
+    <hyperlink ref="B14" location="ods_fluxo_pedidos_saida!A1" display="ods_fluxo_pedidos_saida!A1"/>
+    <hyperlink ref="B8" location="aux_fluxo_pedidos_saida!A1" display="aux_fluxo_pedidos_saida!A1"/>
+    <hyperlink ref="B12" location="ods_fluxo_pedidos_caixa!A1" display="ods_fluxo_pedidos_caixa!A1"/>
+    <hyperlink ref="B6" location="aux_fluxo_pedidos_caixa!A1" display="aux_fluxo_pedidos_caixa!A1"/>
+    <hyperlink ref="B10" location="fact_fluxo_pedidos_entrada!A1" display="fact_fluxo_pedidos_entrada!A1"/>
+    <hyperlink ref="B4" location="aux_fact_fluxo_pedidos_entrada!A1" display="aux_fact_fluxo_pedidos_entrada!A1"/>
+    <hyperlink ref="B11" location="fact_fluxo_pedidos_saida!A1" display="fact_fluxo_pedidos_saida!A1"/>
+    <hyperlink ref="B5" location="aux_fact_fluxo_pedidos_saida!A1" display="aux_fact_fluxo_pedidos_saida!A1"/>
+    <hyperlink ref="B9" location="fact_fluxo_pedidos_caixa!A1" display="fact_fluxo_pedidos_caixa!A1"/>
+    <hyperlink ref="B3" location="aux_fact_fluxo_pedidos_caixa!A1" display="aux_fact_fluxo_pedidos_caixa!A1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -938,7 +3000,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -946,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -966,78 +3028,1790 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="21"/>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
